--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17</t>
+    <t>2022-08-04</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,13 +252,11 @@
     <t>*</t>
   </si>
   <si>
-    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者に関連する情報（家族歴）</t>
-  </si>
-  <si>
-    <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.</t>
-  </si>
-  <si>
-    <t>..</t>
+    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者の診療に関連する情報（家族歴）</t>
+  </si>
+  <si>
+    <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
+患者の診療に関連する患者家族の疾患。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -468,7 +466,7 @@
 </t>
   </si>
   <si>
-    <t>External Id(s) for this record.</t>
+    <t>External Id(s) for this record</t>
   </si>
   <si>
     <t>Business identifiers assigned to this family member history by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
@@ -499,7 +497,7 @@
     <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory. （よくわからない）</t>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
   </si>
   <si>
     <t>Event.instantiatesCanonical</t>
@@ -514,7 +512,7 @@
     <t>Instantiates external protocol or definition</t>
   </si>
   <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.（よくわからない）</t>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
@@ -526,10 +524,11 @@
     <t>FamilyMemberHistory.status</t>
   </si>
   <si>
-    <t>partial | completed | entered-in-error | health-unknown（部分的｜完全｜記録エラー｜健康状態不明）</t>
-  </si>
-  <si>
-    <t>A code specifying the status of the record of the family history of a specific family member. 家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
+    <t>partial | completed | entered-in-error | health-unknown （部分的 | 完全 | 記録エラー | 健康状態不明）</t>
+  </si>
+  <si>
+    <t>A code specifying the status of the record of the family history of a specific family member.
+家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -538,7 +537,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/history-status</t>
+    <t>A code that identifies the status of the family history record.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/history-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -554,19 +556,23 @@
 </t>
   </si>
   <si>
-    <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
-  </si>
-  <si>
-    <t>Describes why the family member's history is not available. 1)subject-unknown：患者が対象の家族のことを知らない（例：患者は養子のため実親を知らない）, 2)withheld：患者が家族歴の共有を拒否, 3)unable-to-obtain：患者から聞き取れない（例：患者が意識不明）, 4)deferred：患者は今は知らないが、後日共有するつもりである。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない|情報の提供を拒否|聞き出すことができない|後日情報を提供できる)</t>
+  </si>
+  <si>
+    <t>Describes why the family member's history is not available.
+1)subject-unknown:患者が対象の家族のことを知らない（例:患者は養子のため実親を知らない）
+2)withheld:患者が家族歴の共有を拒否
+3)unable-to-obtain:患者から聞き取れない（例：患者が意識不明）
+4)deferred:患者は今は知らないが、後日共有するつもりである</t>
   </si>
   <si>
     <t>This is a separate element to allow it to have a distinct binding from reasonCode.</t>
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing the reason why a family member's history is not available.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/history-absent-reason</t>
@@ -589,7 +595,8 @@
     <t>Patient history is about</t>
   </si>
   <si>
-    <t>The person who this history concerns. 患者リソース（JP_Patient）への参照。</t>
+    <t>The person who this history concerns.
+この家族歴を有する患者。</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -611,7 +618,8 @@
     <t>When history was recorded or last updated</t>
   </si>
   <si>
-    <t>The date (and possibly time) when the family member history was recorded or last updated. この家族歴の最終更新日。</t>
+    <t>The date (and possibly time) when the family member history was recorded or last updated.
+この家族歴の最終更新日。</t>
   </si>
   <si>
     <t>This should be captured even if the same as the date on the List aggregating the full family history.</t>
@@ -632,7 +640,8 @@
     <t>The family member described</t>
   </si>
   <si>
-    <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair". 対象の家族の呼び名。例えば「スーザンおばさん」、「赤毛のいとこ」。</t>
+    <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair".
+対象の家族の呼び名。例えば「スーザンおばさん」「赤毛のいとこ」。</t>
   </si>
   <si>
     <t>Allows greater ease in ensuring the same person is being talked about.</t>
@@ -647,7 +656,11 @@
     <t>Relationship to the subject</t>
   </si>
   <si>
-    <t>The type of relationship this person has to the patient (father, mother, brother etc.). 患者と家族との関係の種類（父、母、兄弟など）</t>
+    <t>The type of relationship this person has to the patient (father, mother, brother etc.). 
+患者と家族との関係の種類（父、母、兄弟など）</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember</t>
@@ -659,10 +672,11 @@
     <t>FamilyMemberHistory.sex</t>
   </si>
   <si>
-    <t>male | female | other | unknown（男性｜女性｜その他｜不明）</t>
-  </si>
-  <si>
-    <t>The birth sex of the family member.（*Extensibleなのでこのまま列挙して必要に応じて追加するもあり）</t>
+    <t>male | female | other | unknown（男性 | 女性 | その他 | 不明）</t>
+  </si>
+  <si>
+    <t>The birth sex of the family member.
+家族の出生時の性別。</t>
   </si>
   <si>
     <t>This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
@@ -674,7 +688,8 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Codes describing the sex assigned at birth as documented on the birth registration.（出生届に記載されている性別）</t>
+    <t>Codes describing the sex assigned at birth as documented on the birth registration.
+出生届に記載される出生時に割り当てられた性別。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
@@ -690,7 +705,8 @@
     <t>(approximate) date of birth</t>
   </si>
   <si>
-    <t>The actual or approximate date of birth of the relative. 家族の実際もしくは凡その生年月日。</t>
+    <t>The actual or approximate date of birth of the relative.
+家族の実際もしくは凡その生年月日。</t>
   </si>
   <si>
     <t>Allows calculation of the relative's age.</t>
@@ -713,13 +729,15 @@
     <t>(approximate) age</t>
   </si>
   <si>
-    <t>The age of the relative at the time the family member history is recorded. 家族歴が記録された時点の親族の年齢。</t>
+    <t>The age of the relative at the time the family member history is recorded.
+家族歴が記録された時点のその家族の年齢。</t>
   </si>
   <si>
     <t>use estimatedAge to indicate whether the age is actual or not.</t>
   </si>
   <si>
-    <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians. 年齢は生年月日から計算できるが、臨床医にとっては年齢を直接記録する方が自然な場合もある。</t>
+    <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians.
+年齢は生年月日から計算できるが、臨床医にとっては年齢を直接記録する方が自然な場合もある。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ].act[classCode=OBS,moodCode=EVN, code="age"].value</t>
@@ -735,7 +753,8 @@
     <t>Age is estimated?</t>
   </si>
   <si>
-    <t>If true, indicates that the age value specified is an estimated value. 年齢が推定かどうか。</t>
+    <t>If true, indicates that the age value specified is an estimated value.
+この年齢が推定かどうか。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
@@ -761,7 +780,8 @@
     <t>Dead? How old/when?</t>
   </si>
   <si>
-    <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record. 死亡フラグ／家族の死亡時の実年齢／おおよその年齢。</t>
+    <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.
+死亡フラグ/家族の死亡時の実年齢/おおよその年齢。</t>
   </si>
   <si>
     <t>player[classCode=LIV, determinerCode=INSTANCE].deceasedInd, deceasedDate (could be URG)  For age, you'd hang an observation off the role</t>
@@ -773,10 +793,14 @@
     <t>Why was family member history performed?</t>
   </si>
   <si>
-    <t>Describes why the family member history occurred in coded or textual form. 家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
+    <t>Describes why the family member history occurred in coded or textual form.
+家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
   </si>
   <si>
     <t>Textual reasons can be captured using reasonCode.text.</t>
+  </si>
+  <si>
+    <t>Codes indicating why the family member history was done.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -795,7 +819,8 @@
 </t>
   </si>
   <si>
-    <t>Indicates a Condition, Observation, AllergyIntolerance, or QuestionnaireResponse that justifies this family member history event. この家族歴が聴取されたきっかけとなったFHIRリソースへの参照。</t>
+    <t>Indicates a JP_Condition, JP_Observation, JP_AllergyIntolerance, or JP_QuestionnaireResponse JP_Observation_Common, or JP_DiagnosticReport_Common that justifies this family member history event.
+この家族歴が聴取されたきっかけとなったFHIRリソースへの参照。</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -814,7 +839,8 @@
     <t>General note about related person</t>
   </si>
   <si>
-    <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible. この家族に関するメモ。</t>
+    <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible.
+この家族に関するメモ。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -833,7 +859,8 @@
     <t>Condition that the related person had</t>
   </si>
   <si>
-    <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition. この家族が持っていた疾患（または状態）。</t>
+    <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.
+この家族が持っていた疾患。</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=ActCode#ASSERTION, value&lt;Diagnosis]</t>
@@ -886,7 +913,11 @@
     <t>Condition suffered by relation</t>
   </si>
   <si>
-    <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.</t>
+    <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.
+指定された実際の状態。その状態についてどの程度知られているか、また作成システムの能力に応じて、コード化された状態（MIや糖尿病など）、または「癌」のようなあまり特定されない文字列になる可能性がある。</t>
+  </si>
+  <si>
+    <t>Identification of the Condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -901,7 +932,11 @@
     <t>deceased | permanent disability | etc.</t>
   </si>
   <si>
-    <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.</t>
+    <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.
+その状態の後に何が起こったかを示す。その結果、死亡した場合は、死亡した日付が関連に記録される。</t>
+  </si>
+  <si>
+    <t>The result of the condition for the patient; e.g. death, permanent disability, temporary disability, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-outcome</t>
@@ -916,7 +951,8 @@
     <t>Whether the condition contributed to the cause of death</t>
   </si>
   <si>
-    <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.</t>
+    <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.
+この状態は、関連者の死因に寄与した。contributedToDeath が入力されていない場合は、不明である。</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition.onset[x]</t>
@@ -929,7 +965,8 @@
     <t>When condition first manifested</t>
   </si>
   <si>
-    <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.</t>
+    <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.
+発症年齢、おおよその年齢範囲、記述文字列のいずれかを記録することができる。複数回発生する疾患については、最初に知られている発生を記述する。</t>
   </si>
   <si>
     <t>Age of onset of a condition in relatives is predictive of risk for the patient.</t>
@@ -944,7 +981,8 @@
     <t>Extra information about condition</t>
   </si>
   <si>
-    <t>An area where general notes can be placed about this specific condition.</t>
+    <t>An area where general notes can be placed about this specific condition.
+この家族の疾患についての一般的なメモ。</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1308,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1283,7 +1321,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.61328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="112.3828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -1453,9 +1491,7 @@
       <c r="L2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>76</v>
@@ -1516,16 +1552,16 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>76</v>
@@ -1533,7 +1569,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1544,28 +1580,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1615,13 +1651,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1644,7 +1680,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1655,25 +1691,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1724,19 +1760,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -1753,7 +1789,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1764,28 +1800,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1835,19 +1871,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -1864,7 +1900,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1875,7 +1911,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -1887,16 +1923,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1922,43 +1958,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -1975,18 +2011,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -1998,16 +2034,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2057,28 +2093,28 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2086,11 +2122,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2109,16 +2145,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2168,7 +2204,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2189,7 +2225,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2197,11 +2233,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2220,16 +2256,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2279,7 +2315,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2291,7 +2327,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2300,7 +2336,7 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2308,11 +2344,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2325,25 +2361,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2392,7 +2428,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2404,7 +2440,7 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2413,7 +2449,7 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2421,7 +2457,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2441,22 +2477,22 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
@@ -2505,7 +2541,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -2517,24 +2553,24 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2554,16 +2590,16 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2614,7 +2650,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2626,16 +2662,16 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2643,7 +2679,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2663,19 +2699,19 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2725,7 +2761,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -2737,16 +2773,16 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -2754,7 +2790,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2762,31 +2798,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2812,9 +2848,11 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
         <v>169</v>
       </c>
@@ -2834,19 +2872,19 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>170</v>
@@ -2874,16 +2912,16 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>173</v>
@@ -2894,11 +2932,9 @@
       <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -2923,9 +2959,11 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
@@ -2951,13 +2989,13 @@
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
@@ -2982,19 +3020,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>183</v>
@@ -3057,16 +3095,16 @@
         <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>186</v>
@@ -3094,16 +3132,16 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>190</v>
@@ -3173,13 +3211,13 @@
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3207,19 +3245,19 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
+      <c r="J18" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>198</v>
@@ -3284,13 +3322,13 @@
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
@@ -3315,19 +3353,19 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>173</v>
@@ -3363,11 +3401,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3388,16 +3428,16 @@
         <v>202</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3406,7 +3446,7 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3414,7 +3454,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3425,31 +3465,31 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3474,13 +3514,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3498,19 +3538,19 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -3527,7 +3567,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3538,7 +3578,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -3550,17 +3590,17 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3609,19 +3649,19 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
@@ -3630,7 +3670,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3638,7 +3678,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3649,31 +3689,31 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3722,19 +3762,19 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -3743,7 +3783,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3751,7 +3791,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3762,94 +3802,94 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -3866,7 +3906,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3877,25 +3917,25 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3946,19 +3986,19 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
@@ -3967,7 +4007,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -3975,7 +4015,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3995,19 +4035,19 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4033,11 +4073,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4055,7 +4097,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4067,10 +4109,10 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4079,12 +4121,12 @@
         <v>180</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4104,16 +4146,16 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4164,7 +4206,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4176,24 +4218,24 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4216,13 +4258,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4273,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4285,16 +4327,16 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4302,7 +4344,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4313,7 +4355,7 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4325,13 +4367,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4382,7 +4424,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4394,7 +4436,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4403,7 +4445,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4411,7 +4453,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4422,7 +4464,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -4434,13 +4476,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4491,13 +4533,13 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -4512,7 +4554,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4520,11 +4562,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4543,16 +4585,16 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4602,7 +4644,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4614,7 +4656,7 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
@@ -4623,7 +4665,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4631,11 +4673,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4648,25 +4690,25 @@
         <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -4715,7 +4757,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4727,7 +4769,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4736,7 +4778,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4744,7 +4786,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4752,10 +4794,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -4770,10 +4812,10 @@
         <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4800,11 +4842,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -4822,19 +4866,19 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
@@ -4843,7 +4887,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4851,7 +4895,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4862,7 +4906,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -4877,10 +4921,10 @@
         <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4907,41 +4951,43 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="Y33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -4950,7 +4996,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -4958,7 +5004,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4969,7 +5015,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -4981,13 +5027,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5038,19 +5084,19 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
@@ -5067,7 +5113,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5078,7 +5124,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5090,17 +5136,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5149,19 +5195,19 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
@@ -5170,7 +5216,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5178,7 +5224,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5201,13 +5247,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5258,7 +5304,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5270,7 +5316,7 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
@@ -5279,7 +5325,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
